--- a/NformTester/NformTester/keywordscripts/TST487_SamplingIntervalConfiguration.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST487_SamplingIntervalConfiguration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="4860" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="1755" yWindow="4860" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7542" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7542" uniqueCount="862">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3645,9 +3645,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>"ABC GXT UPS"</t>
   </si>
   <si>
@@ -3784,9 +3781,6 @@
     <t>2012-01-01</t>
   </si>
   <si>
-    <t>10:20:50</t>
-  </si>
-  <si>
     <t>2012-01-03</t>
   </si>
   <si>
@@ -3800,9 +3794,6 @@
   </si>
   <si>
     <t>"2012{RIGHT}1{RIGHT}1{LEFT}{LEFT}"</t>
-  </si>
-  <si>
-    <t>"10{RIGHT}20{RIGHT}50{LEFT}{LEFT}"</t>
   </si>
   <si>
     <t>"2012{RIGHT}1{RIGHT}3{LEFT}{LEFT}"</t>
@@ -3816,6 +3807,26 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.146.88.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:50:50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"00{RIGHT}00{RIGHT}00{LEFT}{LEFT}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4777,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4868,7 +4879,7 @@
         <v>755</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -5026,19 +5037,19 @@
         <v>803</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>807</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>808</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="12"/>
@@ -5054,7 +5065,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="4"/>
@@ -5075,7 +5086,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>19</v>
@@ -5104,7 +5115,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>19</v>
@@ -5133,7 +5144,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>572</v>
@@ -5145,7 +5156,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5164,7 +5175,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>572</v>
@@ -5193,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>514</v>
@@ -5222,7 +5233,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>570</v>
@@ -5251,7 +5262,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>570</v>
@@ -5280,7 +5291,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>514</v>
@@ -5309,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>572</v>
@@ -5367,7 +5378,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5390,7 +5401,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>19</v>
@@ -5417,7 +5428,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>19</v>
@@ -5432,7 +5443,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -5448,13 +5459,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>2</v>
@@ -5475,13 +5486,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>2</v>
@@ -5502,7 +5513,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>570</v>
@@ -5511,7 +5522,7 @@
         <v>571</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H25" s="14">
         <v>3</v>
@@ -5533,7 +5544,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>570</v>
@@ -5545,10 +5556,10 @@
         <v>7</v>
       </c>
       <c r="H26" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J26" s="4">
         <v>30</v>
@@ -5566,7 +5577,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>570</v>
@@ -5578,7 +5589,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5620,7 +5631,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>570</v>
@@ -5632,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="4"/>
@@ -5649,7 +5660,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>570</v>
@@ -5676,7 +5687,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="4"/>
@@ -5697,13 +5708,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>2</v>
@@ -5724,7 +5735,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>570</v>
@@ -5736,10 +5747,10 @@
         <v>7</v>
       </c>
       <c r="H33" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J33" s="4">
         <v>25</v>
@@ -5757,7 +5768,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>570</v>
@@ -5784,7 +5795,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -5805,7 +5816,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>19</v>
@@ -5832,7 +5843,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>19</v>
@@ -5847,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5863,13 +5874,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>2</v>
@@ -5890,13 +5901,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>2</v>
@@ -5917,7 +5928,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>570</v>
@@ -5929,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5971,7 +5982,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>570</v>
@@ -5983,7 +5994,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="4"/>
@@ -6000,7 +6011,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>570</v>
@@ -6027,7 +6038,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
@@ -6046,13 +6057,13 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>2</v>
@@ -6070,7 +6081,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>570</v>
@@ -6082,10 +6093,10 @@
         <v>7</v>
       </c>
       <c r="H46" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -6100,7 +6111,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>570</v>
@@ -6124,7 +6135,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -6142,7 +6153,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>19</v>
@@ -6166,7 +6177,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>19</v>
@@ -6181,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -6194,13 +6205,13 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>2</v>
@@ -6218,13 +6229,13 @@
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>2</v>
@@ -6242,7 +6253,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>570</v>
@@ -6254,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -6290,7 +6301,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>570</v>
@@ -6302,7 +6313,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="4"/>
@@ -6316,7 +6327,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>570</v>
@@ -6340,7 +6351,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="4"/>
@@ -6358,13 +6369,13 @@
         <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>2</v>
@@ -6382,7 +6393,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>570</v>
@@ -6394,10 +6405,10 @@
         <v>7</v>
       </c>
       <c r="H59" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J59" s="4">
         <v>1</v>
@@ -6412,7 +6423,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>570</v>
@@ -6436,7 +6447,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -6454,7 +6465,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>19</v>
@@ -6478,7 +6489,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>19</v>
@@ -6493,7 +6504,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -6506,13 +6517,13 @@
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>2</v>
@@ -6530,13 +6541,13 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>2</v>
@@ -6554,7 +6565,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>570</v>
@@ -6566,7 +6577,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6602,7 +6613,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>570</v>
@@ -6614,7 +6625,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="4"/>
@@ -6628,7 +6639,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>570</v>
@@ -6652,7 +6663,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="4"/>
@@ -6670,13 +6681,13 @@
         <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>2</v>
@@ -6694,7 +6705,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>570</v>
@@ -6706,10 +6717,10 @@
         <v>7</v>
       </c>
       <c r="H72" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J72" s="4">
         <v>10080</v>
@@ -6724,7 +6735,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>570</v>
@@ -6748,7 +6759,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -6766,7 +6777,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>19</v>
@@ -6790,7 +6801,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>19</v>
@@ -6805,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -6818,13 +6829,13 @@
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>2</v>
@@ -6842,13 +6853,13 @@
         <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
@@ -6866,7 +6877,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>570</v>
@@ -6878,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6914,7 +6925,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>570</v>
@@ -6926,7 +6937,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="4"/>
@@ -6940,7 +6951,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>570</v>
@@ -6964,7 +6975,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="4"/>
@@ -6982,13 +6993,13 @@
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>2</v>
@@ -7006,7 +7017,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>570</v>
@@ -7018,10 +7029,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J85" s="4">
         <v>10080</v>
@@ -7036,7 +7047,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>570</v>
@@ -7060,7 +7071,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -7078,7 +7089,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E88" s="14" t="s">
         <v>19</v>
@@ -7102,7 +7113,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E89" s="14" t="s">
         <v>19</v>
@@ -7117,7 +7128,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -7130,13 +7141,13 @@
         <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E90" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>2</v>
@@ -7154,13 +7165,13 @@
         <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>2</v>
@@ -7178,7 +7189,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E92" s="14" t="s">
         <v>570</v>
@@ -7190,7 +7201,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7226,7 +7237,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>570</v>
@@ -7238,7 +7249,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="4"/>
@@ -7252,7 +7263,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>570</v>
@@ -7276,7 +7287,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="4"/>
@@ -7294,13 +7305,13 @@
         <v>96</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>2</v>
@@ -7318,7 +7329,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>570</v>
@@ -7330,10 +7341,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J98" s="4">
         <v>10080</v>
@@ -7348,7 +7359,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>570</v>
@@ -7372,7 +7383,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -7390,7 +7401,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>19</v>
@@ -7414,7 +7425,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>19</v>
@@ -7429,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -7442,13 +7453,13 @@
         <v>102</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>2</v>
@@ -7466,13 +7477,13 @@
         <v>103</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>2</v>
@@ -7490,7 +7501,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E105" s="14" t="s">
         <v>570</v>
@@ -7502,7 +7513,7 @@
         <v>4</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7538,7 +7549,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>570</v>
@@ -7550,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="4"/>
@@ -7564,7 +7575,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>570</v>
@@ -7588,7 +7599,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="4"/>
@@ -7606,13 +7617,13 @@
         <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>2</v>
@@ -7630,7 +7641,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E111" s="14" t="s">
         <v>570</v>
@@ -7642,10 +7653,10 @@
         <v>7</v>
       </c>
       <c r="H111" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="J111" s="4">
         <v>1</v>
@@ -7660,7 +7671,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E112" s="14" t="s">
         <v>570</v>
@@ -7684,7 +7695,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="4"/>
@@ -7702,13 +7713,13 @@
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E114" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>136</v>
@@ -7726,13 +7737,13 @@
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>2</v>
@@ -7750,19 +7761,19 @@
         <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="4"/>
@@ -7776,19 +7787,19 @@
         <v>116</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E117" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="I117" s="14"/>
       <c r="J117" s="4"/>
@@ -7802,19 +7813,19 @@
         <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E118" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="I118" s="14"/>
       <c r="J118" s="4"/>
@@ -7828,19 +7839,19 @@
         <v>118</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="4"/>
@@ -7854,13 +7865,13 @@
         <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>2</v>
@@ -7878,13 +7889,13 @@
         <v>120</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>137</v>
@@ -7902,7 +7913,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="4"/>
@@ -7920,7 +7931,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>19</v>
@@ -7944,7 +7955,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>19</v>
@@ -7959,7 +7970,7 @@
         <v>2</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -7972,13 +7983,13 @@
         <v>124</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>2</v>
@@ -7996,13 +8007,13 @@
         <v>125</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>136</v>
@@ -8020,19 +8031,19 @@
         <v>126</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E127" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I127" s="14" t="b">
         <v>1</v>
@@ -8048,25 +8059,25 @@
         <v>127</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I128" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J128" s="19" t="s">
         <v>847</v>
-      </c>
-      <c r="J128" s="19" t="s">
-        <v>848</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -8078,25 +8089,25 @@
         <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -8108,25 +8119,25 @@
         <v>129</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -8138,25 +8149,25 @@
         <v>130</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>810</v>
+        <v>859</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -8168,25 +8179,25 @@
         <v>131</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E132" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -8198,25 +8209,25 @@
         <v>132</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E133" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -8228,13 +8239,13 @@
         <v>133</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>137</v>
@@ -8252,7 +8263,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -8270,7 +8281,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="4"/>
@@ -8310,7 +8321,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E138" s="14" t="s">
         <v>19</v>
@@ -8334,7 +8345,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E139" s="14" t="s">
         <v>19</v>
@@ -8358,10 +8369,10 @@
         <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E140" s="14" t="s">
         <v>830</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>831</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>573</v>
@@ -8370,7 +8381,7 @@
         <v>3</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -8384,10 +8395,10 @@
         <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E141" s="14" t="s">
         <v>830</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>831</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>178</v>
@@ -8408,7 +8419,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>578</v>
@@ -8432,10 +8443,10 @@
         <v>142</v>
       </c>
       <c r="D143" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E143" s="14" t="s">
         <v>830</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>831</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>95</v>
@@ -29500,7 +29511,7 @@
         <v>8</v>
       </c>
       <c r="ZW7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AAA7" t="s">
         <v>8</v>
@@ -29830,7 +29841,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST487_SamplingIntervalConfiguration.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST487_SamplingIntervalConfiguration.xlsx
@@ -3645,9 +3645,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3809,10 +3806,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10:50:50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3826,6 +3819,14 @@
   </si>
   <si>
     <t>00:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4788,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" topLeftCell="F112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4879,7 +4880,7 @@
         <v>755</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -5037,19 +5038,19 @@
         <v>803</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="12"/>
@@ -5065,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="4"/>
@@ -5086,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>19</v>
@@ -5115,7 +5116,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>19</v>
@@ -5144,7 +5145,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>572</v>
@@ -5156,7 +5157,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5175,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>572</v>
@@ -5204,7 +5205,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>514</v>
@@ -5233,7 +5234,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>570</v>
@@ -5262,7 +5263,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>570</v>
@@ -5291,7 +5292,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>514</v>
@@ -5320,7 +5321,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>572</v>
@@ -5378,7 +5379,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5401,7 +5402,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>19</v>
@@ -5428,7 +5429,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>19</v>
@@ -5443,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -5459,13 +5460,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>2</v>
@@ -5486,13 +5487,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>2</v>
@@ -5513,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>570</v>
@@ -5522,7 +5523,7 @@
         <v>571</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H25" s="14">
         <v>3</v>
@@ -5544,7 +5545,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>570</v>
@@ -5556,10 +5557,10 @@
         <v>7</v>
       </c>
       <c r="H26" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="J26" s="4">
         <v>30</v>
@@ -5577,7 +5578,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>570</v>
@@ -5589,7 +5590,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5631,7 +5632,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>570</v>
@@ -5643,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="4"/>
@@ -5660,7 +5661,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>570</v>
@@ -5687,7 +5688,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="4"/>
@@ -5708,13 +5709,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>2</v>
@@ -5735,7 +5736,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>570</v>
@@ -5747,10 +5748,10 @@
         <v>7</v>
       </c>
       <c r="H33" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="J33" s="4">
         <v>25</v>
@@ -5768,7 +5769,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>570</v>
@@ -5795,7 +5796,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -5816,7 +5817,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>19</v>
@@ -5843,7 +5844,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>19</v>
@@ -5858,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5874,13 +5875,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>2</v>
@@ -5901,13 +5902,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>2</v>
@@ -5928,7 +5929,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>570</v>
@@ -5940,7 +5941,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5982,7 +5983,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>570</v>
@@ -5994,7 +5995,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="4"/>
@@ -6011,7 +6012,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>570</v>
@@ -6038,7 +6039,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
@@ -6057,13 +6058,13 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>2</v>
@@ -6081,7 +6082,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>570</v>
@@ -6093,10 +6094,10 @@
         <v>7</v>
       </c>
       <c r="H46" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -6111,7 +6112,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>570</v>
@@ -6135,7 +6136,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -6153,7 +6154,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>19</v>
@@ -6177,7 +6178,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>19</v>
@@ -6192,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -6205,13 +6206,13 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>2</v>
@@ -6229,13 +6230,13 @@
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>2</v>
@@ -6253,7 +6254,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>570</v>
@@ -6265,7 +6266,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -6301,7 +6302,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>570</v>
@@ -6313,7 +6314,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="4"/>
@@ -6327,7 +6328,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>570</v>
@@ -6351,7 +6352,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="4"/>
@@ -6369,13 +6370,13 @@
         <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>2</v>
@@ -6393,7 +6394,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>570</v>
@@ -6405,10 +6406,10 @@
         <v>7</v>
       </c>
       <c r="H59" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="J59" s="4">
         <v>1</v>
@@ -6423,7 +6424,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>570</v>
@@ -6447,7 +6448,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -6465,7 +6466,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>19</v>
@@ -6489,7 +6490,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>19</v>
@@ -6504,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -6517,13 +6518,13 @@
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>2</v>
@@ -6541,13 +6542,13 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>2</v>
@@ -6565,7 +6566,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>570</v>
@@ -6577,7 +6578,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6613,7 +6614,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>570</v>
@@ -6625,7 +6626,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="4"/>
@@ -6639,7 +6640,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>570</v>
@@ -6663,7 +6664,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="4"/>
@@ -6681,13 +6682,13 @@
         <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>2</v>
@@ -6705,7 +6706,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>570</v>
@@ -6717,10 +6718,10 @@
         <v>7</v>
       </c>
       <c r="H72" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="J72" s="4">
         <v>10080</v>
@@ -6735,7 +6736,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>570</v>
@@ -6759,7 +6760,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -6777,7 +6778,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>19</v>
@@ -6801,7 +6802,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>19</v>
@@ -6816,7 +6817,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -6829,13 +6830,13 @@
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>2</v>
@@ -6853,13 +6854,13 @@
         <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
@@ -6877,7 +6878,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>570</v>
@@ -6889,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6925,7 +6926,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>570</v>
@@ -6937,7 +6938,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="4"/>
@@ -6951,7 +6952,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>570</v>
@@ -6975,7 +6976,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="4"/>
@@ -6993,13 +6994,13 @@
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>2</v>
@@ -7017,7 +7018,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>570</v>
@@ -7029,10 +7030,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="J85" s="4">
         <v>10080</v>
@@ -7047,7 +7048,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>570</v>
@@ -7071,7 +7072,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -7089,7 +7090,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E88" s="14" t="s">
         <v>19</v>
@@ -7113,7 +7114,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E89" s="14" t="s">
         <v>19</v>
@@ -7128,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -7141,13 +7142,13 @@
         <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E90" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>2</v>
@@ -7165,13 +7166,13 @@
         <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>2</v>
@@ -7189,7 +7190,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E92" s="14" t="s">
         <v>570</v>
@@ -7201,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7237,7 +7238,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>570</v>
@@ -7249,7 +7250,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="4"/>
@@ -7263,7 +7264,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>570</v>
@@ -7287,7 +7288,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="4"/>
@@ -7305,13 +7306,13 @@
         <v>96</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>2</v>
@@ -7329,7 +7330,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>570</v>
@@ -7341,10 +7342,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="J98" s="4">
         <v>10080</v>
@@ -7359,7 +7360,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>570</v>
@@ -7383,7 +7384,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -7401,7 +7402,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>19</v>
@@ -7425,7 +7426,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>19</v>
@@ -7440,7 +7441,7 @@
         <v>2</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -7453,13 +7454,13 @@
         <v>102</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>2</v>
@@ -7477,13 +7478,13 @@
         <v>103</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>2</v>
@@ -7501,7 +7502,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E105" s="14" t="s">
         <v>570</v>
@@ -7513,7 +7514,7 @@
         <v>4</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7549,7 +7550,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>570</v>
@@ -7561,7 +7562,7 @@
         <v>4</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="4"/>
@@ -7575,7 +7576,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>570</v>
@@ -7599,7 +7600,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="4"/>
@@ -7617,13 +7618,13 @@
         <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>2</v>
@@ -7641,7 +7642,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E111" s="14" t="s">
         <v>570</v>
@@ -7653,10 +7654,10 @@
         <v>7</v>
       </c>
       <c r="H111" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="J111" s="4">
         <v>1</v>
@@ -7671,7 +7672,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E112" s="14" t="s">
         <v>570</v>
@@ -7695,7 +7696,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="4"/>
@@ -7713,13 +7714,13 @@
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E114" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>136</v>
@@ -7737,13 +7738,13 @@
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>2</v>
@@ -7761,19 +7762,19 @@
         <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="4"/>
@@ -7787,19 +7788,19 @@
         <v>116</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E117" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I117" s="14"/>
       <c r="J117" s="4"/>
@@ -7813,19 +7814,19 @@
         <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E118" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I118" s="14"/>
       <c r="J118" s="4"/>
@@ -7839,19 +7840,19 @@
         <v>118</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="4"/>
@@ -7865,13 +7866,13 @@
         <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>2</v>
@@ -7889,13 +7890,13 @@
         <v>120</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>137</v>
@@ -7913,7 +7914,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="4"/>
@@ -7931,7 +7932,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>19</v>
@@ -7955,7 +7956,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>19</v>
@@ -7970,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -7983,13 +7984,13 @@
         <v>124</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>2</v>
@@ -8007,13 +8008,13 @@
         <v>125</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>136</v>
@@ -8031,19 +8032,19 @@
         <v>126</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E127" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I127" s="14" t="b">
         <v>1</v>
@@ -8059,25 +8060,25 @@
         <v>127</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I128" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J128" s="19" t="s">
         <v>846</v>
-      </c>
-      <c r="J128" s="19" t="s">
-        <v>847</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -8089,25 +8090,25 @@
         <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -8119,25 +8120,25 @@
         <v>129</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -8149,25 +8150,25 @@
         <v>130</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -8179,25 +8180,25 @@
         <v>131</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E132" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -8209,25 +8210,25 @@
         <v>132</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E133" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J133" s="19" t="s">
         <v>850</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H133" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J133" s="19" t="s">
-        <v>851</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -8239,13 +8240,13 @@
         <v>133</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>137</v>
@@ -8263,7 +8264,7 @@
         <v>134</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -8281,7 +8282,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="4"/>
@@ -8321,7 +8322,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E138" s="14" t="s">
         <v>19</v>
@@ -8345,7 +8346,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E139" s="14" t="s">
         <v>19</v>
@@ -8369,10 +8370,10 @@
         <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E140" s="14" t="s">
         <v>829</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>830</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>573</v>
@@ -8381,7 +8382,7 @@
         <v>3</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -8395,10 +8396,10 @@
         <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E141" s="14" t="s">
         <v>829</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>830</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>178</v>
@@ -8419,7 +8420,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>578</v>
@@ -8443,10 +8444,10 @@
         <v>142</v>
       </c>
       <c r="D143" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E143" s="14" t="s">
         <v>829</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>830</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>95</v>
@@ -29511,7 +29512,7 @@
         <v>8</v>
       </c>
       <c r="ZW7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AAA7" t="s">
         <v>8</v>
@@ -29841,7 +29842,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST487_SamplingIntervalConfiguration.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST487_SamplingIntervalConfiguration.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7542" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7552" uniqueCount="864">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3827,6 +3827,14 @@
   </si>
   <si>
     <t>$GXT_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4062,7 +4070,63 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4787,10 +4851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N102" sqref="N102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4996,7 +5060,7 @@
         <v>760</v>
       </c>
       <c r="B7" s="3">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5025,37 +5089,27 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>572</v>
+        <v>808</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="N8" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>762</v>
       </c>
@@ -5065,19 +5119,25 @@
       <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15">
@@ -5087,24 +5147,22 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>808</v>
+        <v>862</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
@@ -5116,27 +5174,37 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
+        <v>802</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+        <v>791</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>806</v>
+      </c>
       <c r="N11" s="13"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="2" t="s">
         <v>765</v>
       </c>
@@ -5144,22 +5212,14 @@
       <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="I12" s="4"/>
+      <c r="D12" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -5178,17 +5238,17 @@
       <c r="D13" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>572</v>
+      <c r="E13" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -5207,11 +5267,11 @@
       <c r="D14" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>514</v>
+      <c r="E14" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>521</v>
+        <v>74</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -5236,17 +5296,19 @@
       <c r="D15" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>570</v>
+      <c r="E15" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>372</v>
+        <v>573</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -5265,17 +5327,17 @@
       <c r="D16" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>570</v>
+      <c r="E16" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -5298,7 +5360,7 @@
         <v>514</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
+        <v>521</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>2</v>
@@ -5323,11 +5385,11 @@
       <c r="D18" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>572</v>
+      <c r="E18" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>95</v>
+        <v>372</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>2</v>
@@ -5352,17 +5414,19 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+        <v>808</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -5370,7 +5434,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" ht="15">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>773</v>
       </c>
@@ -5378,13 +5442,19 @@
       <c r="C20" s="4">
         <v>19</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>809</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="14"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -5404,11 +5474,11 @@
       <c r="D21" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>19</v>
+      <c r="E21" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>2</v>
@@ -5429,23 +5499,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="14">
-        <v>2</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -5453,25 +5517,19 @@
       <c r="N22" s="13"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="14"/>
+      <c r="D23" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -5493,13 +5551,13 @@
         <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>811</v>
+        <v>26</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -5517,19 +5575,19 @@
         <v>808</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>571</v>
+        <v>97</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>831</v>
+        <v>56</v>
       </c>
       <c r="H25" s="14">
-        <v>3</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>861</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -5548,23 +5606,17 @@
         <v>808</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>327</v>
+        <v>810</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="J26" s="4">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -5581,17 +5633,15 @@
         <v>808</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>327</v>
+        <v>811</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>814</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -5607,17 +5657,23 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F28" s="4">
+        <v>570</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="H28" s="14">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -5641,13 +5697,17 @@
         <v>327</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="4"/>
+        <v>812</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J29" s="4">
+        <v>30</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -5667,13 +5727,15 @@
         <v>570</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -5681,20 +5743,24 @@
       <c r="N30" s="13"/>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="4">
         <v>30</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -5712,15 +5778,17 @@
         <v>808</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>811</v>
+        <v>327</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>815</v>
+      </c>
       <c r="I32" s="14"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5742,44 +5810,32 @@
         <v>570</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="J33" s="4">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="13"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="15">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D34" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="4"/>
@@ -5789,20 +5845,26 @@
       <c r="N34" s="13"/>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="1:15" ht="15">
+    <row r="35" spans="1:15">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5820,17 +5882,23 @@
         <v>808</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J36" s="4">
+        <v>25</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -5847,20 +5915,16 @@
         <v>808</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="14">
-        <v>2</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5868,25 +5932,19 @@
       <c r="N37" s="13"/>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="15">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="14"/>
+      <c r="D38" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5908,13 +5966,13 @@
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>811</v>
+        <v>26</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="14"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5932,18 +5990,20 @@
         <v>808</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="I40" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H40" s="14">
+        <v>2</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5958,15 +6018,17 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H41" s="14"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5986,18 +6048,16 @@
         <v>808</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>327</v>
+        <v>811</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="I42" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -6018,13 +6078,15 @@
         <v>570</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -6032,20 +6094,24 @@
       <c r="N43" s="13"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="1:15" ht="15">
+    <row r="44" spans="1:15">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="4">
         <v>43</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="4"/>
+      <c r="D44" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -6061,15 +6127,17 @@
         <v>808</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>811</v>
+        <v>327</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>818</v>
+      </c>
       <c r="I45" s="14"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -6088,41 +6156,29 @@
         <v>570</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="15">
       <c r="C47" s="4">
         <v>46</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D47" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="4"/>
@@ -6131,18 +6187,24 @@
       <c r="M47" s="4"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:15" ht="15">
+    <row r="48" spans="1:15">
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -6157,17 +6219,23 @@
         <v>808</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -6181,43 +6249,33 @@
         <v>808</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="14">
-        <v>2</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:14" ht="15">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="14"/>
+      <c r="D51" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -6236,13 +6294,13 @@
         <v>19</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>811</v>
+        <v>26</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H52" s="14"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -6257,18 +6315,20 @@
         <v>808</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="I53" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H53" s="14">
+        <v>2</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -6280,15 +6340,17 @@
         <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H54" s="14"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -6305,18 +6367,16 @@
         <v>808</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>327</v>
+        <v>811</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="I55" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -6334,31 +6394,37 @@
         <v>570</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="3:14" ht="15">
+    <row r="57" spans="3:14">
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="4"/>
+      <c r="D57" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
       <c r="G57" s="4"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -6373,15 +6439,17 @@
         <v>808</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>811</v>
+        <v>327</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>820</v>
+      </c>
       <c r="I58" s="14"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -6400,41 +6468,29 @@
         <v>570</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="J59" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="3:14">
+    <row r="60" spans="3:14" ht="15">
       <c r="C60" s="4">
         <v>59</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D60" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="4"/>
@@ -6443,18 +6499,24 @@
       <c r="M60" s="4"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="3:14" ht="15">
+    <row r="61" spans="3:14">
       <c r="C61" s="4">
         <v>60</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>821</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="D61" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -6469,17 +6531,23 @@
         <v>808</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -6493,43 +6561,33 @@
         <v>808</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H63" s="14">
-        <v>2</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="3:14">
+    <row r="64" spans="3:14" ht="15">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="14"/>
+      <c r="D64" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -6548,13 +6606,13 @@
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>811</v>
+        <v>26</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H65" s="14"/>
-      <c r="I65" s="4"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6569,18 +6627,20 @@
         <v>808</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="I66" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H66" s="14">
+        <v>2</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -6592,15 +6652,17 @@
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H67" s="14"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6617,18 +6679,16 @@
         <v>808</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>327</v>
+        <v>811</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="I68" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -6646,31 +6706,37 @@
         <v>570</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="3:14" ht="15">
+    <row r="70" spans="3:14">
       <c r="C70" s="4">
         <v>69</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="4"/>
+      <c r="D70" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
       <c r="G70" s="4"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -6685,15 +6751,17 @@
         <v>808</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>811</v>
+        <v>327</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>822</v>
+      </c>
       <c r="I71" s="14"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -6712,41 +6780,29 @@
         <v>570</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="J72" s="4">
-        <v>10080</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="3:14">
+    <row r="73" spans="3:14" ht="15">
       <c r="C73" s="4">
         <v>72</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D73" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="4"/>
@@ -6755,18 +6811,24 @@
       <c r="M73" s="4"/>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="3:14" ht="15">
+    <row r="74" spans="3:14">
       <c r="C74" s="4">
         <v>73</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="D74" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -6781,17 +6843,23 @@
         <v>808</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J75" s="4">
+        <v>10080</v>
+      </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -6805,43 +6873,33 @@
         <v>808</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" s="14">
-        <v>2</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="3:14">
+    <row r="77" spans="3:14" ht="15">
       <c r="C77" s="4">
         <v>76</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="14"/>
+      <c r="D77" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -6860,13 +6918,13 @@
         <v>19</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>811</v>
+        <v>26</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H78" s="14"/>
-      <c r="I78" s="4"/>
+      <c r="I78" s="14"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6881,18 +6939,20 @@
         <v>808</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="I79" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H79" s="14">
+        <v>2</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -6904,15 +6964,17 @@
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H80" s="14"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6929,18 +6991,16 @@
         <v>808</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>327</v>
+        <v>811</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="I81" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="H81" s="14"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6958,31 +7018,37 @@
         <v>570</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="13"/>
     </row>
-    <row r="83" spans="3:14" ht="15">
+    <row r="83" spans="3:14">
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="4"/>
+      <c r="D83" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
       <c r="G83" s="4"/>
       <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -6997,15 +7063,17 @@
         <v>808</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>811</v>
+        <v>327</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>824</v>
+      </c>
       <c r="I84" s="14"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -7024,41 +7092,29 @@
         <v>570</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="J85" s="4">
-        <v>10080</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="13"/>
     </row>
-    <row r="86" spans="3:14">
+    <row r="86" spans="3:14" ht="15">
       <c r="C86" s="4">
         <v>85</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D86" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="4"/>
@@ -7067,18 +7123,24 @@
       <c r="M86" s="4"/>
       <c r="N86" s="13"/>
     </row>
-    <row r="87" spans="3:14" ht="15">
+    <row r="87" spans="3:14">
       <c r="C87" s="4">
         <v>86</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>825</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
+      <c r="D87" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -7093,17 +7155,23 @@
         <v>808</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J88" s="4">
+        <v>10080</v>
+      </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
@@ -7117,43 +7185,33 @@
         <v>808</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="14">
-        <v>2</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="13"/>
     </row>
-    <row r="90" spans="3:14">
+    <row r="90" spans="3:14" ht="15">
       <c r="C90" s="4">
         <v>89</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="14"/>
+      <c r="D90" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -7172,13 +7230,13 @@
         <v>19</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>811</v>
+        <v>26</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="14"/>
-      <c r="I91" s="4"/>
+      <c r="I91" s="14"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -7193,18 +7251,20 @@
         <v>808</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="I92" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H92" s="14">
+        <v>2</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -7216,15 +7276,17 @@
         <v>92</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1</v>
-      </c>
-      <c r="G93" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H93" s="14"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7241,18 +7303,16 @@
         <v>808</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>327</v>
+        <v>811</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="I94" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="H94" s="14"/>
+      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -7270,31 +7330,37 @@
         <v>570</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="13"/>
     </row>
-    <row r="96" spans="3:14" ht="15">
+    <row r="96" spans="3:14">
       <c r="C96" s="4">
         <v>95</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="4"/>
+      <c r="D96" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
       <c r="G96" s="4"/>
       <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -7309,15 +7375,17 @@
         <v>808</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>811</v>
+        <v>327</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>826</v>
+      </c>
       <c r="I97" s="14"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -7336,41 +7404,29 @@
         <v>570</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="J98" s="4">
-        <v>10080</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="13"/>
     </row>
-    <row r="99" spans="3:14">
+    <row r="99" spans="3:14" ht="15">
       <c r="C99" s="4">
         <v>98</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D99" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="4"/>
@@ -7379,18 +7435,24 @@
       <c r="M99" s="4"/>
       <c r="N99" s="13"/>
     </row>
-    <row r="100" spans="3:14" ht="15">
+    <row r="100" spans="3:14">
       <c r="C100" s="4">
         <v>99</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
+      <c r="D100" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -7405,17 +7467,23 @@
         <v>808</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J101" s="4">
+        <v>10080</v>
+      </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -7429,43 +7497,33 @@
         <v>808</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H102" s="14">
-        <v>2</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="13"/>
     </row>
-    <row r="103" spans="3:14">
+    <row r="103" spans="3:14" ht="15">
       <c r="C103" s="4">
         <v>102</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="14"/>
+      <c r="D103" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -7484,13 +7542,13 @@
         <v>19</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>811</v>
+        <v>26</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H104" s="14"/>
-      <c r="I104" s="4"/>
+      <c r="I104" s="14"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -7505,18 +7563,20 @@
         <v>808</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="I105" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H105" s="14">
+        <v>2</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -7528,15 +7588,17 @@
         <v>105</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F106" s="4">
-        <v>1</v>
-      </c>
-      <c r="G106" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H106" s="14"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7553,18 +7615,16 @@
         <v>808</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>327</v>
+        <v>811</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H107" s="14" t="s">
-        <v>833</v>
-      </c>
-      <c r="I107" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="H107" s="14"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -7582,31 +7642,37 @@
         <v>570</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="13"/>
     </row>
-    <row r="109" spans="3:14" ht="15">
+    <row r="109" spans="3:14">
       <c r="C109" s="4">
         <v>108</v>
       </c>
-      <c r="D109" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="4"/>
+      <c r="D109" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
       <c r="G109" s="4"/>
       <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
+      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7621,15 +7687,17 @@
         <v>808</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>811</v>
+        <v>327</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H110" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>833</v>
+      </c>
       <c r="I110" s="14"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -7648,41 +7716,29 @@
         <v>570</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="J111" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="13"/>
     </row>
-    <row r="112" spans="3:14">
+    <row r="112" spans="3:14" ht="15">
       <c r="C112" s="4">
         <v>111</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D112" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E112" s="14"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="4"/>
@@ -7691,16 +7747,22 @@
       <c r="M112" s="4"/>
       <c r="N112" s="13"/>
     </row>
-    <row r="113" spans="3:14" ht="15">
+    <row r="113" spans="3:14">
       <c r="C113" s="4">
         <v>112</v>
       </c>
-      <c r="D113" s="16" t="s">
-        <v>834</v>
-      </c>
-      <c r="E113" s="14"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="D113" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="4"/>
@@ -7717,17 +7779,23 @@
         <v>808</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>835</v>
+        <v>327</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="J114" s="4">
+        <v>1</v>
+      </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
@@ -7741,10 +7809,10 @@
         <v>808</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>838</v>
+        <v>95</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>2</v>
@@ -7757,25 +7825,17 @@
       <c r="M115" s="4"/>
       <c r="N115" s="13"/>
     </row>
-    <row r="116" spans="3:14">
+    <row r="116" spans="3:14" ht="15">
       <c r="C116" s="4">
         <v>115</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>851</v>
-      </c>
+      <c r="D116" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
@@ -7794,14 +7854,12 @@
         <v>19</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>858</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -7820,14 +7878,12 @@
         <v>19</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>852</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -7846,13 +7902,13 @@
         <v>19</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="4"/>
@@ -7872,12 +7928,14 @@
         <v>19</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>858</v>
+      </c>
       <c r="I120" s="14"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -7896,12 +7954,14 @@
         <v>19</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H121" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>852</v>
+      </c>
       <c r="I121" s="14"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
@@ -7909,17 +7969,25 @@
       <c r="M121" s="4"/>
       <c r="N121" s="13"/>
     </row>
-    <row r="122" spans="3:14" ht="15">
+    <row r="122" spans="3:14">
       <c r="C122" s="4">
         <v>121</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>844</v>
-      </c>
-      <c r="E122" s="14"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="14"/>
+      <c r="D122" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>858</v>
+      </c>
       <c r="I122" s="14"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -7938,7 +8006,7 @@
         <v>19</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>26</v>
+        <v>843</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>2</v>
@@ -7962,41 +8030,31 @@
         <v>19</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>97</v>
+        <v>835</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H124" s="14">
-        <v>2</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>861</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="13"/>
     </row>
-    <row r="125" spans="3:14">
+    <row r="125" spans="3:14" ht="15">
       <c r="C125" s="4">
         <v>124</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D125" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
       <c r="H125" s="14"/>
-      <c r="I125" s="4"/>
+      <c r="I125" s="14"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -8014,13 +8072,13 @@
         <v>19</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>835</v>
+        <v>26</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="H126" s="14"/>
-      <c r="I126" s="4"/>
+      <c r="I126" s="14"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -8038,16 +8096,16 @@
         <v>19</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>838</v>
+        <v>97</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="14" t="s">
-        <v>836</v>
-      </c>
-      <c r="I127" s="14" t="b">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="H127" s="14">
+        <v>2</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>861</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
@@ -8066,20 +8124,14 @@
         <v>19</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>839</v>
+        <v>810</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H128" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="J128" s="19" t="s">
-        <v>846</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -8096,20 +8148,14 @@
         <v>19</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="J129" s="19" t="s">
-        <v>859</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
@@ -8126,20 +8172,18 @@
         <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="J130" s="19" t="s">
-        <v>847</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="I130" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
@@ -8150,13 +8194,13 @@
         <v>130</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>857</v>
+        <v>808</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>7</v>
@@ -8168,7 +8212,7 @@
         <v>845</v>
       </c>
       <c r="J131" s="19" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -8186,7 +8230,7 @@
         <v>19</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>7</v>
@@ -8198,7 +8242,7 @@
         <v>845</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -8216,7 +8260,7 @@
         <v>19</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>7</v>
@@ -8228,7 +8272,7 @@
         <v>845</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -8240,56 +8284,86 @@
         <v>133</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J134" s="19" t="s">
+        <v>856</v>
+      </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="13"/>
     </row>
-    <row r="135" spans="3:14" ht="15">
+    <row r="135" spans="3:14">
       <c r="C135" s="4">
         <v>134</v>
       </c>
-      <c r="D135" s="16" t="s">
-        <v>853</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="D135" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J135" s="19" t="s">
+        <v>848</v>
+      </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="13"/>
     </row>
-    <row r="136" spans="3:14" ht="15">
+    <row r="136" spans="3:14">
       <c r="C136" s="4">
         <v>135</v>
       </c>
-      <c r="D136" s="16" t="s">
-        <v>827</v>
-      </c>
-      <c r="E136" s="14"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
+      <c r="D136" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J136" s="19" t="s">
+        <v>850</v>
+      </c>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
@@ -8300,65 +8374,55 @@
         <v>136</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F137" s="4">
-        <v>2</v>
-      </c>
-      <c r="G137" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="H137" s="14"/>
-      <c r="I137" s="4"/>
+      <c r="I137" s="14"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="13"/>
     </row>
-    <row r="138" spans="3:14">
+    <row r="138" spans="3:14" ht="15">
       <c r="C138" s="4">
         <v>137</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D138" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
       <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
+      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="13"/>
     </row>
-    <row r="139" spans="3:14">
+    <row r="139" spans="3:14" ht="15">
       <c r="C139" s="4">
         <v>138</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D139" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="E139" s="14"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
       <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
+      <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -8370,74 +8434,70 @@
         <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>828</v>
+        <v>792</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>829</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>830</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F140" s="4">
+        <v>2</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="14"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
-      <c r="N140" s="17"/>
+      <c r="N140" s="13"/>
     </row>
-    <row r="141" spans="3:14" ht="14.25">
+    <row r="141" spans="3:14">
       <c r="C141" s="4">
         <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>829</v>
+        <v>19</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H141" s="18"/>
-      <c r="I141" s="4"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
-      <c r="N141" s="17"/>
+      <c r="N141" s="13"/>
     </row>
     <row r="142" spans="3:14">
       <c r="C142" s="4">
         <v>141</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>578</v>
+        <v>808</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H142" s="14"/>
-      <c r="I142" s="4"/>
+      <c r="I142" s="14"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-      <c r="N142" s="17"/>
+      <c r="N142" s="13"/>
     </row>
     <row r="143" spans="3:14">
       <c r="C143" s="4">
@@ -8450,40 +8510,130 @@
         <v>829</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>95</v>
+        <v>573</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
-      <c r="N143" s="13"/>
+      <c r="N143" s="17"/>
+    </row>
+    <row r="144" spans="3:14" ht="14.25">
+      <c r="C144" s="4">
+        <v>143</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" s="18"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="17"/>
+    </row>
+    <row r="145" spans="3:14">
+      <c r="C145" s="4">
+        <v>144</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H145" s="14"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="17"/>
+    </row>
+    <row r="146" spans="3:14">
+      <c r="C146" s="4">
+        <v>145</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N143">
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N146">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G141:G143 G2:G139">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G144:G146 G2:G142">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D138:D139 D19 D8 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D141:D142 D22 D11 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E146">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F146">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST487_SamplingIntervalConfiguration.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST487_SamplingIntervalConfiguration.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7552" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7553" uniqueCount="865">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3822,19 +3822,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4070,35 +4074,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -4853,8 +4829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5035,7 +5011,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="7">
-        <v>41106</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -5082,9 +5058,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>862</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -5111,11 +5087,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5141,16 +5115,20 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F10" s="14">
         <v>2</v>
@@ -5166,10 +5144,8 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5187,10 +5163,10 @@
         <v>803</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>804</v>
@@ -5206,7 +5182,7 @@
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="4">
@@ -5229,7 +5205,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="4">
@@ -5258,7 +5234,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="4">
@@ -5287,7 +5263,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="4">
@@ -5306,7 +5282,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5318,7 +5294,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="4">
@@ -5346,10 +5322,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="11" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5377,7 +5353,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5404,11 +5380,9 @@
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5436,9 +5410,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5465,7 +5441,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4">
@@ -5493,8 +5469,10 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5587,7 +5565,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -6002,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -6120,6 +6098,8 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="4">
         <v>44</v>
       </c>
@@ -6327,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -6639,7 +6619,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -6951,7 +6931,7 @@
         <v>2</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -7263,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -7575,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -8105,7 +8085,7 @@
         <v>2</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
@@ -8600,26 +8580,26 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N2:N146">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N10">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N10">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
